--- a/Хрусталёв Кирилл (задание 1).xlsx
+++ b/Хрусталёв Кирилл (задание 1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Учёба\Задание 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1DBDE9-A97A-4924-8704-38DE0B6D7474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9FD853-9C3A-4070-AA9D-7E57B5A96AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Описание</t>
   </si>
@@ -79,10 +79,6 @@
     <t>REST API</t>
   </si>
   <si>
-    <t>Предпологается связь между несколькими продюсерами и консьюмерами, с обработкой большого количества сообщений.
-Для анализа данных, необходима возможность повторного чтения сообщений (Хранение сообщений).</t>
-  </si>
-  <si>
     <t>Для доставки пуш сообщений можно использовать готовые решения Firebase Cloud Messaging и Huawei Push Kit.
 Firebase Cloud Messaging - позволяет отправлять веб пуш (google и firefox), пуш на андроид устройства с google сервисами и пуш на Apple устройства. 
 Huawei Push Kit - используется для отправки пуш на устройства с Huawei без Google сервисов.</t>
@@ -97,29 +93,29 @@
     <t>WebRTC</t>
   </si>
   <si>
-    <t>WebRT - это инструмент, предназначеный для передачи потоковых аудиоданных, видеоданных и контента между браузерами (без установки плагинов или иных расширений) или другими поддерживающими его приложениями в режиме реального времени.
+    <t>Шина данных</t>
+  </si>
+  <si>
+    <t>В данном случае необходимо использовать шину данных.
+Современная шина данных поддерживает любые виды протоколов, способна обрабатывать их и передавать источнику.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Популярное и мощное решение, позволяющее обмениваться данными между клиентом и сервером с помощью API. 
+По запросу от клиента сервер вернёт информацию в удобном формате JSON. </t>
+  </si>
+  <si>
+    <t>Предполагается, что данными будут пользоваться несколько консьюмеров, по этому необходимо организовать хранение сообщений с возможностью повторного чтения.</t>
+  </si>
+  <si>
+    <t>WebRT - это инструмент, предназначенный для передачи потоковых аудиоданных, видеоданных и контента между браузерами (без установки плагинов или иных расширений) или другими поддерживающими его приложениями в режиме реального времени.
 - Обеспечивает высокое качество связи благодаря использованию современных кодеков и использованию дополнительных функций для передачи аудио и видео данных (автоматическая подстройка качества, эхо и шумоподавления и т.д.).
 - Обеспечивает высокий уровень безопасности. (Использует шифрование DTLS и SRTP и работает по протоколу HTTPS)
 - Имеет возможность реализации любого интерфейса управления на основе HTML5 и JavaScript.
 - Проект с открытым исходным кодом — можно внедрить в свой продукт или сервис.</t>
   </si>
   <si>
-    <t>Шина данных</t>
-  </si>
-  <si>
-    <t>В данном случае необходимо использовать шину данных.
-Современная шина данных поддерживает любые виды протоколов, способна обрабатывать их и передавать источнику.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Популярное и мощное решение, позволяющее обмениваться данными между клиентом и сервером с помощью API. 
-По запросу от клиента сервер вернёт синформацию в удобном формате JSON. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Популярное и мощное решение, позволяющее обмениваться данными между клиентом и сервером с помощью API. 
-По запросу от клиента сервер вернёт информацию в удобном формате JSON. </t>
-  </si>
-  <si>
-    <t>Предпологается, что данными будут пользоваться несколько консьюмеров, по этому необходимо организовать хранение сообщений с возможностью повторного чтения.</t>
+    <t>Предполагается связь между несколькими продюсерами и консьюмерами, с обработкой большого количества сообщений.
+Для анализа данных, необходима возможность повторного чтения сообщений (Хранение сообщений).</t>
   </si>
 </sst>
 </file>
@@ -708,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -752,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6">
@@ -760,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8">
@@ -774,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57.6">
@@ -785,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="144">
@@ -793,10 +789,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="72">
@@ -804,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.2">
@@ -818,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2">
@@ -829,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72">
@@ -840,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
